--- a/Dataset/BVC_Voice_Bio_Public.xlsx
+++ b/Dataset/BVC_Voice_Bio_Public.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/OGE_4TB/FRAMES_RENAMED/VOICE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m4ria\OneDrive\Documentos\4ano\DACO\ProjetoDACO\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D530DB7D-AD35-884C-B5EB-4AD052F09791}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FED9B10-BB21-4934-AF95-2A6FA11638B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="920" windowWidth="25040" windowHeight="14400" xr2:uid="{257983B8-A270-084B-BEBA-A148FAD49B75}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{257983B8-A270-084B-BEBA-A148FAD49B75}"/>
   </bookViews>
   <sheets>
     <sheet name="voice_bio_data" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -219,7 +228,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -518,12 +527,12 @@
   <dimension ref="A1:F561"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,7 +546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>4001</v>
       </c>
@@ -555,7 +564,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>4002</v>
       </c>
@@ -573,7 +582,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>4003</v>
       </c>
@@ -587,7 +596,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4004</v>
       </c>
@@ -604,7 +613,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4005</v>
       </c>
@@ -621,7 +630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4006</v>
       </c>
@@ -638,7 +647,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>4007</v>
       </c>
@@ -655,7 +664,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>4008</v>
       </c>
@@ -672,7 +681,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>4010</v>
       </c>
@@ -689,7 +698,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>4011</v>
       </c>
@@ -703,7 +712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>4012</v>
       </c>
@@ -717,7 +726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>4020</v>
       </c>
@@ -731,7 +740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>4021</v>
       </c>
@@ -745,7 +754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>4022</v>
       </c>
@@ -759,7 +768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>4026</v>
       </c>
@@ -773,7 +782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>4028</v>
       </c>
@@ -787,7 +796,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>4029</v>
       </c>
@@ -801,7 +810,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>4030</v>
       </c>
@@ -815,7 +824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>4032</v>
       </c>
@@ -829,7 +838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>4033</v>
       </c>
@@ -843,7 +852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>4036</v>
       </c>
@@ -857,7 +866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>4037</v>
       </c>
@@ -871,7 +880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>4038</v>
       </c>
@@ -885,7 +894,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>4040</v>
       </c>
@@ -899,7 +908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>4042</v>
       </c>
@@ -913,7 +922,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>4043</v>
       </c>
@@ -927,7 +936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>4048</v>
       </c>
@@ -941,7 +950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>4051</v>
       </c>
@@ -955,7 +964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>4055</v>
       </c>
@@ -969,7 +978,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>4056</v>
       </c>
@@ -983,7 +992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>4057</v>
       </c>
@@ -997,7 +1006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>4059</v>
       </c>
@@ -1011,7 +1020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>4061</v>
       </c>
@@ -1025,7 +1034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>4062</v>
       </c>
@@ -1039,7 +1048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>4063</v>
       </c>
@@ -1053,7 +1062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>4065</v>
       </c>
@@ -1067,7 +1076,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>4066</v>
       </c>
@@ -1081,7 +1090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>4067</v>
       </c>
@@ -1095,7 +1104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>4068</v>
       </c>
@@ -1109,7 +1118,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>4069</v>
       </c>
@@ -1123,7 +1132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>4070</v>
       </c>
@@ -1137,7 +1146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>4073</v>
       </c>
@@ -1151,7 +1160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>4074</v>
       </c>
@@ -1165,7 +1174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>4075</v>
       </c>
@@ -1179,7 +1188,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>4076</v>
       </c>
@@ -1193,7 +1202,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>4078</v>
       </c>
@@ -1207,7 +1216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>4079</v>
       </c>
@@ -1221,7 +1230,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>4082</v>
       </c>
@@ -1235,7 +1244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>4083</v>
       </c>
@@ -1249,7 +1258,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>4085</v>
       </c>
@@ -1263,7 +1272,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>4086</v>
       </c>
@@ -1277,7 +1286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>4087</v>
       </c>
@@ -1291,7 +1300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>4088</v>
       </c>
@@ -1305,7 +1314,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>4089</v>
       </c>
@@ -1319,7 +1328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>4092</v>
       </c>
@@ -1333,7 +1342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>4096</v>
       </c>
@@ -1347,7 +1356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>4097</v>
       </c>
@@ -1361,7 +1370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>4099</v>
       </c>
@@ -1375,7 +1384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>4100</v>
       </c>
@@ -1389,7 +1398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>4103</v>
       </c>
@@ -1403,7 +1412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>4104</v>
       </c>
@@ -1417,7 +1426,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>4105</v>
       </c>
@@ -1431,7 +1440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>4107</v>
       </c>
@@ -1445,7 +1454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>4109</v>
       </c>
@@ -1459,7 +1468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>4113</v>
       </c>
@@ -1473,7 +1482,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>4114</v>
       </c>
@@ -1487,7 +1496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>4120</v>
       </c>
@@ -1501,7 +1510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>4123</v>
       </c>
@@ -1515,7 +1524,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>4124</v>
       </c>
@@ -1529,7 +1538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>4125</v>
       </c>
@@ -1543,7 +1552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>4126</v>
       </c>
@@ -1557,7 +1566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>4127</v>
       </c>
@@ -1571,7 +1580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>4128</v>
       </c>
@@ -1585,7 +1594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>4130</v>
       </c>
@@ -1599,7 +1608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>4132</v>
       </c>
@@ -1613,7 +1622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>4133</v>
       </c>
@@ -1627,7 +1636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>4134</v>
       </c>
@@ -1641,7 +1650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>4139</v>
       </c>
@@ -1655,7 +1664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>4141</v>
       </c>
@@ -1669,7 +1678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>4143</v>
       </c>
@@ -1683,7 +1692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>4147</v>
       </c>
@@ -1697,7 +1706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>4149</v>
       </c>
@@ -1711,7 +1720,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>4150</v>
       </c>
@@ -1725,7 +1734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>4152</v>
       </c>
@@ -1739,7 +1748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>4153</v>
       </c>
@@ -1753,7 +1762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>4156</v>
       </c>
@@ -1767,7 +1776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>4157</v>
       </c>
@@ -1781,7 +1790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>4160</v>
       </c>
@@ -1795,7 +1804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>4162</v>
       </c>
@@ -1809,7 +1818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>4164</v>
       </c>
@@ -1823,7 +1832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>4165</v>
       </c>
@@ -1837,7 +1846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>4169</v>
       </c>
@@ -1851,7 +1860,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>4170</v>
       </c>
@@ -1865,7 +1874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>4171</v>
       </c>
@@ -1879,7 +1888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>4177</v>
       </c>
@@ -1893,7 +1902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>4178</v>
       </c>
@@ -1907,7 +1916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>4179</v>
       </c>
@@ -1921,7 +1930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>4182</v>
       </c>
@@ -1935,7 +1944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>4183</v>
       </c>
@@ -1949,7 +1958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>4184</v>
       </c>
@@ -1963,7 +1972,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>4185</v>
       </c>
@@ -1977,7 +1986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>4188</v>
       </c>
@@ -1991,7 +2000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>4191</v>
       </c>
@@ -2005,7 +2014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>4193</v>
       </c>
@@ -2019,7 +2028,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>4194</v>
       </c>
@@ -2033,7 +2042,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>4195</v>
       </c>
@@ -2047,7 +2056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>4196</v>
       </c>
@@ -2061,7 +2070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>4199</v>
       </c>
@@ -2075,7 +2084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>4200</v>
       </c>
@@ -2089,7 +2098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>4203</v>
       </c>
@@ -2103,7 +2112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>4205</v>
       </c>
@@ -2117,7 +2126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>4206</v>
       </c>
@@ -2131,7 +2140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>4209</v>
       </c>
@@ -2145,7 +2154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>4210</v>
       </c>
@@ -2159,7 +2168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>4211</v>
       </c>
@@ -2173,7 +2182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>4212</v>
       </c>
@@ -2187,7 +2196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>4213</v>
       </c>
@@ -2201,7 +2210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>4214</v>
       </c>
@@ -2215,7 +2224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>4215</v>
       </c>
@@ -2229,7 +2238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>4216</v>
       </c>
@@ -2243,7 +2252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>4217</v>
       </c>
@@ -2257,7 +2266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>4221</v>
       </c>
@@ -2271,7 +2280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>4222</v>
       </c>
@@ -2285,7 +2294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>4223</v>
       </c>
@@ -2299,7 +2308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>4224</v>
       </c>
@@ -2313,7 +2322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>4225</v>
       </c>
@@ -2327,7 +2336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>4226</v>
       </c>
@@ -2341,7 +2350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>4227</v>
       </c>
@@ -2355,7 +2364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>4229</v>
       </c>
@@ -2369,7 +2378,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>4234</v>
       </c>
@@ -2383,7 +2392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>4241</v>
       </c>
@@ -2397,7 +2406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>4242</v>
       </c>
@@ -2411,7 +2420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>4243</v>
       </c>
@@ -2425,7 +2434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>4244</v>
       </c>
@@ -2439,7 +2448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>4245</v>
       </c>
@@ -2453,7 +2462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>4248</v>
       </c>
@@ -2467,7 +2476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>4250</v>
       </c>
@@ -2481,7 +2490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>4253</v>
       </c>
@@ -2495,7 +2504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>4254</v>
       </c>
@@ -2509,7 +2518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>4257</v>
       </c>
@@ -2523,7 +2532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>4258</v>
       </c>
@@ -2537,7 +2546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>4261</v>
       </c>
@@ -2551,7 +2560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>4262</v>
       </c>
@@ -2565,7 +2574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>4263</v>
       </c>
@@ -2579,7 +2588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>4265</v>
       </c>
@@ -2593,7 +2602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>4267</v>
       </c>
@@ -2607,7 +2616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>4268</v>
       </c>
@@ -2621,7 +2630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>4269</v>
       </c>
@@ -2635,7 +2644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>4271</v>
       </c>
@@ -2649,7 +2658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>4274</v>
       </c>
@@ -2663,7 +2672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>4275</v>
       </c>
@@ -2677,7 +2686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>4276</v>
       </c>
@@ -2691,7 +2700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>4278</v>
       </c>
@@ -2705,7 +2714,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>4280</v>
       </c>
@@ -2719,7 +2728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>4282</v>
       </c>
@@ -2733,7 +2742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>4283</v>
       </c>
@@ -2747,7 +2756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>4285</v>
       </c>
@@ -2761,7 +2770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>4286</v>
       </c>
@@ -2775,7 +2784,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>4289</v>
       </c>
@@ -2789,7 +2798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>4292</v>
       </c>
@@ -2803,7 +2812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>4294</v>
       </c>
@@ -2817,7 +2826,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>4295</v>
       </c>
@@ -2831,7 +2840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>4296</v>
       </c>
@@ -2845,7 +2854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>4298</v>
       </c>
@@ -2859,7 +2868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>4299</v>
       </c>
@@ -2873,7 +2882,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>4300</v>
       </c>
@@ -2887,7 +2896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>4303</v>
       </c>
@@ -2901,7 +2910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>4304</v>
       </c>
@@ -2915,7 +2924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>4305</v>
       </c>
@@ -2929,7 +2938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>4306</v>
       </c>
@@ -2943,7 +2952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>4307</v>
       </c>
@@ -2957,7 +2966,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>4308</v>
       </c>
@@ -2971,7 +2980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>4311</v>
       </c>
@@ -2985,7 +2994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>4317</v>
       </c>
@@ -2999,7 +3008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>4318</v>
       </c>
@@ -3013,7 +3022,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>4319</v>
       </c>
@@ -3027,7 +3036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>4321</v>
       </c>
@@ -3041,7 +3050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>4323</v>
       </c>
@@ -3055,7 +3064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>4324</v>
       </c>
@@ -3069,7 +3078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>4326</v>
       </c>
@@ -3083,7 +3092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>4330</v>
       </c>
@@ -3097,7 +3106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>4331</v>
       </c>
@@ -3111,7 +3120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>4332</v>
       </c>
@@ -3125,7 +3134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>4334</v>
       </c>
@@ -3139,7 +3148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>4335</v>
       </c>
@@ -3153,7 +3162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>4338</v>
       </c>
@@ -3167,7 +3176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>4339</v>
       </c>
@@ -3181,7 +3190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>4340</v>
       </c>
@@ -3195,7 +3204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>4343</v>
       </c>
@@ -3209,7 +3218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>4344</v>
       </c>
@@ -3223,7 +3232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>4345</v>
       </c>
@@ -3237,7 +3246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>4346</v>
       </c>
@@ -3251,7 +3260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>4347</v>
       </c>
@@ -3265,7 +3274,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>4348</v>
       </c>
@@ -3279,7 +3288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>4349</v>
       </c>
@@ -3293,7 +3302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>4350</v>
       </c>
@@ -3307,7 +3316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>4351</v>
       </c>
@@ -3321,7 +3330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>4352</v>
       </c>
@@ -3335,7 +3344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>4353</v>
       </c>
@@ -3349,7 +3358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>4354</v>
       </c>
@@ -3363,7 +3372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>4355</v>
       </c>
@@ -3377,7 +3386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>4357</v>
       </c>
@@ -3391,7 +3400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>4361</v>
       </c>
@@ -3405,7 +3414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>4362</v>
       </c>
@@ -3419,7 +3428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>4363</v>
       </c>
@@ -3433,7 +3442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>4364</v>
       </c>
@@ -3447,7 +3456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>4365</v>
       </c>
@@ -3461,7 +3470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>4369</v>
       </c>
@@ -3475,7 +3484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>4373</v>
       </c>
@@ -3489,7 +3498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>4374</v>
       </c>
@@ -3503,7 +3512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>4376</v>
       </c>
@@ -3517,7 +3526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>4377</v>
       </c>
@@ -3531,7 +3540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>4379</v>
       </c>
@@ -3545,7 +3554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>4380</v>
       </c>
@@ -3559,7 +3568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>4383</v>
       </c>
@@ -3573,7 +3582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>4384</v>
       </c>
@@ -3587,7 +3596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>4387</v>
       </c>
@@ -3601,7 +3610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>4389</v>
       </c>
@@ -3615,7 +3624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>4392</v>
       </c>
@@ -3629,7 +3638,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>4395</v>
       </c>
@@ -3643,7 +3652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>4396</v>
       </c>
@@ -3657,7 +3666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>4397</v>
       </c>
@@ -3671,7 +3680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>4398</v>
       </c>
@@ -3685,7 +3694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>4399</v>
       </c>
@@ -3699,7 +3708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>4400</v>
       </c>
@@ -3713,7 +3722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>4401</v>
       </c>
@@ -3727,7 +3736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>4402</v>
       </c>
@@ -3741,7 +3750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>4406</v>
       </c>
@@ -3755,7 +3764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>4409</v>
       </c>
@@ -3769,7 +3778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>4410</v>
       </c>
@@ -3783,7 +3792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>4411</v>
       </c>
@@ -3797,7 +3806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>4412</v>
       </c>
@@ -3811,7 +3820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>4414</v>
       </c>
@@ -3825,7 +3834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>4415</v>
       </c>
@@ -3839,7 +3848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>4416</v>
       </c>
@@ -3853,7 +3862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>4418</v>
       </c>
@@ -3867,7 +3876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>4420</v>
       </c>
@@ -3881,7 +3890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>4421</v>
       </c>
@@ -3895,7 +3904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>4422</v>
       </c>
@@ -3909,7 +3918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>4423</v>
       </c>
@@ -3923,7 +3932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>4425</v>
       </c>
@@ -3937,7 +3946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>4427</v>
       </c>
@@ -3951,7 +3960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>4428</v>
       </c>
@@ -3965,7 +3974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>4429</v>
       </c>
@@ -3979,7 +3988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>4432</v>
       </c>
@@ -3993,7 +4002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>4433</v>
       </c>
@@ -4007,7 +4016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>4436</v>
       </c>
@@ -4021,7 +4030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>4437</v>
       </c>
@@ -4035,7 +4044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>4439</v>
       </c>
@@ -4049,7 +4058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>4441</v>
       </c>
@@ -4063,7 +4072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>4443</v>
       </c>
@@ -4077,7 +4086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>4445</v>
       </c>
@@ -4091,7 +4100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>4446</v>
       </c>
@@ -4105,7 +4114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>4447</v>
       </c>
@@ -4119,7 +4128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>4452</v>
       </c>
@@ -4133,7 +4142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>4453</v>
       </c>
@@ -4147,7 +4156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>4457</v>
       </c>
@@ -4161,7 +4170,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>4458</v>
       </c>
@@ -4175,7 +4184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>4459</v>
       </c>
@@ -4189,7 +4198,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>4460</v>
       </c>
@@ -4203,7 +4212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>4461</v>
       </c>
@@ -4217,7 +4226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>4462</v>
       </c>
@@ -4231,7 +4240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>4464</v>
       </c>
@@ -4245,7 +4254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>4465</v>
       </c>
@@ -4259,7 +4268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>4466</v>
       </c>
@@ -4273,7 +4282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>4468</v>
       </c>
@@ -4287,7 +4296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>4471</v>
       </c>
@@ -4301,7 +4310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>4474</v>
       </c>
@@ -4315,7 +4324,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>4475</v>
       </c>
@@ -4329,7 +4338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>4476</v>
       </c>
@@ -4343,7 +4352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>4478</v>
       </c>
@@ -4357,7 +4366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>4479</v>
       </c>
@@ -4371,7 +4380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>4480</v>
       </c>
@@ -4385,7 +4394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>4484</v>
       </c>
@@ -4399,7 +4408,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>4486</v>
       </c>
@@ -4413,7 +4422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>4488</v>
       </c>
@@ -4427,7 +4436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>4489</v>
       </c>
@@ -4441,7 +4450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>4490</v>
       </c>
@@ -4455,7 +4464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>4491</v>
       </c>
@@ -4469,7 +4478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>4493</v>
       </c>
@@ -4483,7 +4492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>4494</v>
       </c>
@@ -4497,7 +4506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>4497</v>
       </c>
@@ -4511,7 +4520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>4498</v>
       </c>
@@ -4525,7 +4534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>4500</v>
       </c>
@@ -4539,7 +4548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>4501</v>
       </c>
@@ -4553,7 +4562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>4502</v>
       </c>
@@ -4567,7 +4576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>4504</v>
       </c>
@@ -4581,7 +4590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>4505</v>
       </c>
@@ -4595,7 +4604,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>4509</v>
       </c>
@@ -4609,7 +4618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>4510</v>
       </c>
@@ -4623,7 +4632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>4513</v>
       </c>
@@ -4637,7 +4646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>4517</v>
       </c>
@@ -4651,7 +4660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>4519</v>
       </c>
@@ -4665,7 +4674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>4522</v>
       </c>
@@ -4679,7 +4688,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>4523</v>
       </c>
@@ -4693,7 +4702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>4526</v>
       </c>
@@ -4707,7 +4716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>4527</v>
       </c>
@@ -4721,7 +4730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>4528</v>
       </c>
@@ -4735,7 +4744,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>4530</v>
       </c>
@@ -4749,7 +4758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>4531</v>
       </c>
@@ -4763,7 +4772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>4534</v>
       </c>
@@ -4777,7 +4786,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>4535</v>
       </c>
@@ -4791,7 +4800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>4538</v>
       </c>
@@ -4805,7 +4814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>4539</v>
       </c>
@@ -4819,7 +4828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>4540</v>
       </c>
@@ -4833,7 +4842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>4542</v>
       </c>
@@ -4847,7 +4856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>4543</v>
       </c>
@@ -4861,7 +4870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>4548</v>
       </c>
@@ -4875,7 +4884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>4550</v>
       </c>
@@ -4889,7 +4898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>4551</v>
       </c>
@@ -4903,7 +4912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>4553</v>
       </c>
@@ -4917,7 +4926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>4554</v>
       </c>
@@ -4931,7 +4940,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>4555</v>
       </c>
@@ -4945,7 +4954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>4557</v>
       </c>
@@ -4959,7 +4968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>4559</v>
       </c>
@@ -4973,7 +4982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>4562</v>
       </c>
@@ -4987,7 +4996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>4563</v>
       </c>
@@ -5001,7 +5010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>4566</v>
       </c>
@@ -5015,7 +5024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>4567</v>
       </c>
@@ -5029,7 +5038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>4568</v>
       </c>
@@ -5043,7 +5052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>4570</v>
       </c>
@@ -5057,7 +5066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>4571</v>
       </c>
@@ -5071,7 +5080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>4572</v>
       </c>
@@ -5085,7 +5094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>4575</v>
       </c>
@@ -5099,7 +5108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>4577</v>
       </c>
@@ -5113,7 +5122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>4581</v>
       </c>
@@ -5127,7 +5136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>4582</v>
       </c>
@@ -5141,7 +5150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>4584</v>
       </c>
@@ -5155,7 +5164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>4586</v>
       </c>
@@ -5169,7 +5178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>4590</v>
       </c>
@@ -5183,7 +5192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>4595</v>
       </c>
@@ -5197,7 +5206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>4596</v>
       </c>
@@ -5211,7 +5220,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>4598</v>
       </c>
@@ -5225,7 +5234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>4601</v>
       </c>
@@ -5239,7 +5248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>4602</v>
       </c>
@@ -5253,7 +5262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>4604</v>
       </c>
@@ -5267,7 +5276,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>4606</v>
       </c>
@@ -5281,7 +5290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>4607</v>
       </c>
@@ -5295,7 +5304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>4608</v>
       </c>
@@ -5309,7 +5318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>4609</v>
       </c>
@@ -5323,7 +5332,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>4610</v>
       </c>
@@ -5337,7 +5346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>4611</v>
       </c>
@@ -5351,7 +5360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>4612</v>
       </c>
@@ -5365,7 +5374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>4613</v>
       </c>
@@ -5379,7 +5388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>4614</v>
       </c>
@@ -5393,7 +5402,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>4616</v>
       </c>
@@ -5407,7 +5416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>4619</v>
       </c>
@@ -5421,7 +5430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>4620</v>
       </c>
@@ -5435,7 +5444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>4623</v>
       </c>
@@ -5449,7 +5458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>4624</v>
       </c>
@@ -5463,7 +5472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A352">
         <v>4627</v>
       </c>
@@ -5477,7 +5486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>4628</v>
       </c>
@@ -5491,7 +5500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>4632</v>
       </c>
@@ -5505,7 +5514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>4633</v>
       </c>
@@ -5519,7 +5528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>4634</v>
       </c>
@@ -5533,7 +5542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>4635</v>
       </c>
@@ -5547,7 +5556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A358">
         <v>4636</v>
       </c>
@@ -5561,7 +5570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A359">
         <v>4638</v>
       </c>
@@ -5575,7 +5584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>4639</v>
       </c>
@@ -5589,7 +5598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>4640</v>
       </c>
@@ -5603,7 +5612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A362">
         <v>4641</v>
       </c>
@@ -5617,7 +5626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>4642</v>
       </c>
@@ -5631,7 +5640,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>4643</v>
       </c>
@@ -5645,7 +5654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A365">
         <v>4644</v>
       </c>
@@ -5659,7 +5668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A366">
         <v>4645</v>
       </c>
@@ -5673,7 +5682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A367">
         <v>4646</v>
       </c>
@@ -5687,7 +5696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A368">
         <v>4649</v>
       </c>
@@ -5701,7 +5710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A369">
         <v>4650</v>
       </c>
@@ -5715,7 +5724,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A370">
         <v>4651</v>
       </c>
@@ -5729,7 +5738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A371">
         <v>4653</v>
       </c>
@@ -5743,7 +5752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A372">
         <v>4654</v>
       </c>
@@ -5757,7 +5766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A373">
         <v>4658</v>
       </c>
@@ -5771,7 +5780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A374">
         <v>4660</v>
       </c>
@@ -5785,7 +5794,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A375">
         <v>4661</v>
       </c>
@@ -5799,7 +5808,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A376">
         <v>4662</v>
       </c>
@@ -5813,7 +5822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A377">
         <v>4664</v>
       </c>
@@ -5827,7 +5836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A378">
         <v>4665</v>
       </c>
@@ -5841,7 +5850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A379">
         <v>4675</v>
       </c>
@@ -5855,7 +5864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A380">
         <v>4676</v>
       </c>
@@ -5869,7 +5878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A381">
         <v>4677</v>
       </c>
@@ -5883,7 +5892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A382">
         <v>4678</v>
       </c>
@@ -5897,7 +5906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A383">
         <v>4681</v>
       </c>
@@ -5911,7 +5920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A384">
         <v>4682</v>
       </c>
@@ -5925,7 +5934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A385">
         <v>4683</v>
       </c>
@@ -5939,7 +5948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A386">
         <v>4684</v>
       </c>
@@ -5953,7 +5962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A387">
         <v>4687</v>
       </c>
@@ -5967,7 +5976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A388">
         <v>4689</v>
       </c>
@@ -5981,7 +5990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A389">
         <v>4690</v>
       </c>
@@ -5995,7 +6004,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A390">
         <v>4692</v>
       </c>
@@ -6009,7 +6018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A391">
         <v>4694</v>
       </c>
@@ -6023,7 +6032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A392">
         <v>4695</v>
       </c>
@@ -6037,7 +6046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A393">
         <v>4696</v>
       </c>
@@ -6051,7 +6060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A394">
         <v>4697</v>
       </c>
@@ -6065,7 +6074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A395">
         <v>4699</v>
       </c>
@@ -6079,7 +6088,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A396">
         <v>4702</v>
       </c>
@@ -6093,7 +6102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A397">
         <v>4706</v>
       </c>
@@ -6107,7 +6116,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A398">
         <v>4708</v>
       </c>
@@ -6121,7 +6130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A399">
         <v>4711</v>
       </c>
@@ -6135,7 +6144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A400">
         <v>4712</v>
       </c>
@@ -6149,7 +6158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A401">
         <v>4716</v>
       </c>
@@ -6163,7 +6172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A402">
         <v>4719</v>
       </c>
@@ -6177,7 +6186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A403">
         <v>4721</v>
       </c>
@@ -6191,7 +6200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A404">
         <v>4722</v>
       </c>
@@ -6205,7 +6214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A405">
         <v>4723</v>
       </c>
@@ -6219,7 +6228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A406">
         <v>4725</v>
       </c>
@@ -6233,7 +6242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A407">
         <v>4726</v>
       </c>
@@ -6247,7 +6256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A408">
         <v>4727</v>
       </c>
@@ -6261,7 +6270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A409">
         <v>4728</v>
       </c>
@@ -6275,7 +6284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A410">
         <v>4729</v>
       </c>
@@ -6289,7 +6298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A411">
         <v>4730</v>
       </c>
@@ -6303,7 +6312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A412">
         <v>4731</v>
       </c>
@@ -6317,7 +6326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A413">
         <v>4733</v>
       </c>
@@ -6331,7 +6340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A414">
         <v>4735</v>
       </c>
@@ -6345,7 +6354,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A415">
         <v>4738</v>
       </c>
@@ -6359,7 +6368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A416">
         <v>4739</v>
       </c>
@@ -6373,7 +6382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A417">
         <v>4740</v>
       </c>
@@ -6387,7 +6396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A418">
         <v>4743</v>
       </c>
@@ -6401,7 +6410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A419">
         <v>4745</v>
       </c>
@@ -6415,7 +6424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A420">
         <v>4747</v>
       </c>
@@ -6429,7 +6438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A421">
         <v>4748</v>
       </c>
@@ -6443,7 +6452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A422">
         <v>4749</v>
       </c>
@@ -6457,7 +6466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A423">
         <v>4751</v>
       </c>
@@ -6471,7 +6480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A424">
         <v>4752</v>
       </c>
@@ -6485,7 +6494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A425">
         <v>4753</v>
       </c>
@@ -6499,7 +6508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A426">
         <v>4755</v>
       </c>
@@ -6513,7 +6522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A427">
         <v>4761</v>
       </c>
@@ -6527,7 +6536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A428">
         <v>4762</v>
       </c>
@@ -6541,7 +6550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A429">
         <v>4763</v>
       </c>
@@ -6555,7 +6564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A430">
         <v>4764</v>
       </c>
@@ -6569,7 +6578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A431">
         <v>4765</v>
       </c>
@@ -6583,7 +6592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A432">
         <v>4767</v>
       </c>
@@ -6597,7 +6606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A433">
         <v>4768</v>
       </c>
@@ -6611,7 +6620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A434">
         <v>4770</v>
       </c>
@@ -6625,7 +6634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A435">
         <v>4773</v>
       </c>
@@ -6639,7 +6648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A436">
         <v>4774</v>
       </c>
@@ -6653,7 +6662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A437">
         <v>4776</v>
       </c>
@@ -6667,7 +6676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A438">
         <v>4778</v>
       </c>
@@ -6681,7 +6690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A439">
         <v>4781</v>
       </c>
@@ -6695,7 +6704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A440">
         <v>4782</v>
       </c>
@@ -6709,7 +6718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A441">
         <v>4784</v>
       </c>
@@ -6723,7 +6732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A442">
         <v>4786</v>
       </c>
@@ -6737,7 +6746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A443">
         <v>4787</v>
       </c>
@@ -6751,7 +6760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A444">
         <v>4788</v>
       </c>
@@ -6765,7 +6774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A445">
         <v>4789</v>
       </c>
@@ -6779,7 +6788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A446">
         <v>4790</v>
       </c>
@@ -6793,7 +6802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A447">
         <v>4791</v>
       </c>
@@ -6807,7 +6816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A448">
         <v>4792</v>
       </c>
@@ -6821,7 +6830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A449">
         <v>4802</v>
       </c>
@@ -6835,7 +6844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A450">
         <v>4803</v>
       </c>
@@ -6849,7 +6858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A451">
         <v>4804</v>
       </c>
@@ -6863,7 +6872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A452">
         <v>4805</v>
       </c>
@@ -6877,7 +6886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A453">
         <v>4807</v>
       </c>
@@ -6891,7 +6900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A454">
         <v>4808</v>
       </c>
@@ -6905,7 +6914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A455">
         <v>4809</v>
       </c>
@@ -6919,7 +6928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A456">
         <v>4811</v>
       </c>
@@ -6933,7 +6942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A457">
         <v>4815</v>
       </c>
@@ -6947,7 +6956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A458">
         <v>4818</v>
       </c>
@@ -6961,7 +6970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A459">
         <v>4820</v>
       </c>
@@ -6975,7 +6984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A460">
         <v>4821</v>
       </c>
@@ -6989,7 +6998,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A461">
         <v>4823</v>
       </c>
@@ -7003,7 +7012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A462">
         <v>4824</v>
       </c>
@@ -7017,7 +7026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A463">
         <v>4827</v>
       </c>
@@ -7031,7 +7040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A464">
         <v>4833</v>
       </c>
@@ -7045,7 +7054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A465">
         <v>4836</v>
       </c>
@@ -7059,7 +7068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A466">
         <v>4837</v>
       </c>
@@ -7073,7 +7082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A467">
         <v>4838</v>
       </c>
@@ -7087,7 +7096,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A468">
         <v>4840</v>
       </c>
@@ -7101,7 +7110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A469">
         <v>4842</v>
       </c>
@@ -7115,7 +7124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A470">
         <v>4843</v>
       </c>
@@ -7129,7 +7138,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A471">
         <v>4844</v>
       </c>
@@ -7143,7 +7152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A472">
         <v>4846</v>
       </c>
@@ -7157,7 +7166,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A473">
         <v>4847</v>
       </c>
@@ -7171,7 +7180,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A474">
         <v>4851</v>
       </c>
@@ -7185,7 +7194,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A475">
         <v>4854</v>
       </c>
@@ -7199,7 +7208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A476">
         <v>4856</v>
       </c>
@@ -7213,7 +7222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A477">
         <v>4860</v>
       </c>
@@ -7227,7 +7236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A478">
         <v>4861</v>
       </c>
@@ -7241,7 +7250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A479">
         <v>4862</v>
       </c>
@@ -7255,7 +7264,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A480">
         <v>4865</v>
       </c>
@@ -7269,7 +7278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A481">
         <v>4867</v>
       </c>
@@ -7283,7 +7292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A482">
         <v>4869</v>
       </c>
@@ -7297,7 +7306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A483">
         <v>4870</v>
       </c>
@@ -7311,7 +7320,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A484">
         <v>4871</v>
       </c>
@@ -7325,7 +7334,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A485">
         <v>4872</v>
       </c>
@@ -7339,7 +7348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A486">
         <v>4874</v>
       </c>
@@ -7353,7 +7362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A487">
         <v>4875</v>
       </c>
@@ -7367,7 +7376,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A488">
         <v>4877</v>
       </c>
@@ -7381,7 +7390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A489">
         <v>4881</v>
       </c>
@@ -7395,7 +7404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A490">
         <v>4883</v>
       </c>
@@ -7409,7 +7418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A491">
         <v>4884</v>
       </c>
@@ -7423,7 +7432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A492">
         <v>4889</v>
       </c>
@@ -7437,7 +7446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A493">
         <v>4892</v>
       </c>
@@ -7451,7 +7460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A494">
         <v>4893</v>
       </c>
@@ -7465,7 +7474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A495">
         <v>4896</v>
       </c>
@@ -7479,7 +7488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A496">
         <v>4897</v>
       </c>
@@ -7493,7 +7502,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A497">
         <v>4898</v>
       </c>
@@ -7507,7 +7516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A498">
         <v>4901</v>
       </c>
@@ -7521,7 +7530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A499">
         <v>4903</v>
       </c>
@@ -7535,7 +7544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A500">
         <v>4904</v>
       </c>
@@ -7549,7 +7558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A501">
         <v>4905</v>
       </c>
@@ -7563,7 +7572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A502">
         <v>4907</v>
       </c>
@@ -7577,7 +7586,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A503">
         <v>4908</v>
       </c>
@@ -7591,7 +7600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A504">
         <v>4912</v>
       </c>
@@ -7605,7 +7614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A505">
         <v>4913</v>
       </c>
@@ -7619,7 +7628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A506">
         <v>4914</v>
       </c>
@@ -7633,7 +7642,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A507">
         <v>4917</v>
       </c>
@@ -7647,7 +7656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A508">
         <v>4918</v>
       </c>
@@ -7661,7 +7670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A509">
         <v>4919</v>
       </c>
@@ -7675,7 +7684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A510">
         <v>4921</v>
       </c>
@@ -7689,7 +7698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A511">
         <v>4922</v>
       </c>
@@ -7703,7 +7712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A512">
         <v>4925</v>
       </c>
@@ -7717,7 +7726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A513">
         <v>4927</v>
       </c>
@@ -7731,7 +7740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A514">
         <v>4929</v>
       </c>
@@ -7745,7 +7754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A515">
         <v>4933</v>
       </c>
@@ -7759,7 +7768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A516">
         <v>4934</v>
       </c>
@@ -7773,7 +7782,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A517">
         <v>4935</v>
       </c>
@@ -7787,7 +7796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A518">
         <v>4936</v>
       </c>
@@ -7801,7 +7810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A519">
         <v>4937</v>
       </c>
@@ -7815,7 +7824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A520">
         <v>4938</v>
       </c>
@@ -7829,7 +7838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A521">
         <v>4939</v>
       </c>
@@ -7843,7 +7852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A522">
         <v>4940</v>
       </c>
@@ -7857,7 +7866,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A523">
         <v>4941</v>
       </c>
@@ -7871,7 +7880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A524">
         <v>4943</v>
       </c>
@@ -7885,7 +7894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A525">
         <v>4945</v>
       </c>
@@ -7899,7 +7908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A526">
         <v>4946</v>
       </c>
@@ -7913,7 +7922,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A527">
         <v>4949</v>
       </c>
@@ -7927,7 +7936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A528">
         <v>4950</v>
       </c>
@@ -7941,7 +7950,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A529">
         <v>4951</v>
       </c>
@@ -7955,7 +7964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A530">
         <v>4952</v>
       </c>
@@ -7969,7 +7978,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A531">
         <v>4953</v>
       </c>
@@ -7983,7 +7992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A532">
         <v>4955</v>
       </c>
@@ -7997,7 +8006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A533">
         <v>4958</v>
       </c>
@@ -8011,7 +8020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A534">
         <v>4960</v>
       </c>
@@ -8025,7 +8034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A535">
         <v>4961</v>
       </c>
@@ -8039,7 +8048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A536">
         <v>4963</v>
       </c>
@@ -8053,7 +8062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A537">
         <v>4965</v>
       </c>
@@ -8067,7 +8076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A538">
         <v>4966</v>
       </c>
@@ -8081,7 +8090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A539">
         <v>4969</v>
       </c>
@@ -8095,7 +8104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A540">
         <v>4970</v>
       </c>
@@ -8109,7 +8118,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A541">
         <v>4971</v>
       </c>
@@ -8123,7 +8132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A542">
         <v>4972</v>
       </c>
@@ -8137,7 +8146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A543">
         <v>4973</v>
       </c>
@@ -8151,7 +8160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A544">
         <v>4974</v>
       </c>
@@ -8165,7 +8174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A545">
         <v>4976</v>
       </c>
@@ -8179,7 +8188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A546">
         <v>4977</v>
       </c>
@@ -8193,7 +8202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A547">
         <v>4978</v>
       </c>
@@ -8207,7 +8216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A548">
         <v>4980</v>
       </c>
@@ -8221,7 +8230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A549">
         <v>4981</v>
       </c>
@@ -8235,7 +8244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A550">
         <v>4982</v>
       </c>
@@ -8249,7 +8258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A551">
         <v>4983</v>
       </c>
@@ -8263,7 +8272,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A552">
         <v>4985</v>
       </c>
@@ -8277,7 +8286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A553">
         <v>4987</v>
       </c>
@@ -8291,7 +8300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A554">
         <v>4988</v>
       </c>
@@ -8305,7 +8314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A555">
         <v>4990</v>
       </c>
@@ -8319,7 +8328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A556">
         <v>4991</v>
       </c>
@@ -8333,7 +8342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A557">
         <v>4993</v>
       </c>
@@ -8347,7 +8356,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A558">
         <v>4994</v>
       </c>
@@ -8361,7 +8370,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A559">
         <v>4995</v>
       </c>
@@ -8375,7 +8384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A560">
         <v>4998</v>
       </c>
@@ -8389,7 +8398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A561">
         <v>4999</v>
       </c>

--- a/Dataset/BVC_Voice_Bio_Public.xlsx
+++ b/Dataset/BVC_Voice_Bio_Public.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m4ria\OneDrive\Documentos\4ano\DACO\ProjetoDACO\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FED9B10-BB21-4934-AF95-2A6FA11638B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD8B9E7-F218-4F2C-8405-A6BAA03F3C49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{257983B8-A270-084B-BEBA-A148FAD49B75}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="45">
   <si>
     <t>New_ID</t>
   </si>
@@ -158,6 +158,18 @@
   <si>
     <t>'Okirika'</t>
   </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Subconjuntos de Idades</t>
+  </si>
+  <si>
+    <t>Matos</t>
+  </si>
 </sst>
 </file>
 
@@ -206,10 +218,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,15 +542,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B819E7F-6A5B-3540-96F7-866BED53D692}">
-  <dimension ref="A1:F561"/>
+  <dimension ref="A1:K561"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,8 +563,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>4001</v>
       </c>
@@ -563,8 +586,20 @@
         <f>COUNTIF(B2:B527,"='Male'")</f>
         <v>336</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2">
+        <f>MIN(C2:C561)</f>
+        <v>14</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>4002</v>
       </c>
@@ -581,8 +616,15 @@
         <f>COUNTIF(B2:B527,"='Female'")</f>
         <v>190</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3">
+        <f>MAX(C2:C561)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>4003</v>
       </c>
@@ -596,7 +638,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4004</v>
       </c>
@@ -613,7 +655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4005</v>
       </c>
@@ -630,7 +672,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4006</v>
       </c>
@@ -647,7 +689,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>4007</v>
       </c>
@@ -664,7 +706,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>4008</v>
       </c>
@@ -681,7 +723,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>4010</v>
       </c>
@@ -698,7 +740,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>4011</v>
       </c>
@@ -712,7 +754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>4012</v>
       </c>
@@ -726,7 +768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>4020</v>
       </c>
@@ -740,7 +782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>4021</v>
       </c>
@@ -754,7 +796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>4022</v>
       </c>
@@ -768,7 +810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>4026</v>
       </c>
@@ -8413,6 +8455,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I2:K2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="57" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
